--- a/data/trans_orig/P05B_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P05B_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>15467</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8918</v>
+        <v>8324</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24611</v>
+        <v>23796</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03280830465363194</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01891696893670843</v>
+        <v>0.01765776921530207</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05220682171169174</v>
+        <v>0.05047714587079826</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -765,19 +765,19 @@
         <v>14211</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8135</v>
+        <v>8160</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22759</v>
+        <v>23434</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04633935596487353</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02652567205646469</v>
+        <v>0.02660801846394603</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07421239389147863</v>
+        <v>0.07641300605249332</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -786,19 +786,19 @@
         <v>29678</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20788</v>
+        <v>20496</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41959</v>
+        <v>40662</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0381414093468298</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02671574115324505</v>
+        <v>0.02634076161551725</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05392525306625572</v>
+        <v>0.052257817770897</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>455956</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>446812</v>
+        <v>447627</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>462505</v>
+        <v>463099</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9671916953463681</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9477931782883083</v>
+        <v>0.9495228541292017</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9810830310632916</v>
+        <v>0.982342230784698</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>284</v>
@@ -836,19 +836,19 @@
         <v>292469</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283921</v>
+        <v>283246</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>298545</v>
+        <v>298520</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9536606440351265</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9257876061085213</v>
+        <v>0.9235869939475065</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9734743279435353</v>
+        <v>0.9733919815360538</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>721</v>
@@ -857,19 +857,19 @@
         <v>748426</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>736145</v>
+        <v>737442</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>757316</v>
+        <v>757608</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9618585906531703</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9460747469337444</v>
+        <v>0.947742182229103</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9732842588467551</v>
+        <v>0.9736592383844829</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>11973</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5525</v>
+        <v>6503</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20912</v>
+        <v>22370</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03262959962743469</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01505779198610031</v>
+        <v>0.01772361981542852</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05699150838960788</v>
+        <v>0.06096351301855669</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -982,19 +982,19 @@
         <v>13149</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7365</v>
+        <v>7464</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22188</v>
+        <v>22157</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03536027150621168</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0198043815826937</v>
+        <v>0.02007198073691751</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05966689418230468</v>
+        <v>0.05958234889622318</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -1003,19 +1003,19 @@
         <v>25122</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16923</v>
+        <v>15863</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37924</v>
+        <v>37293</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03400404778396012</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02290673502254721</v>
+        <v>0.02147095046104067</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05133190517502835</v>
+        <v>0.05047753419070811</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>354961</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>346022</v>
+        <v>344564</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>361409</v>
+        <v>360431</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9673704003725653</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9430084916103921</v>
+        <v>0.9390364869814429</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9849422080138998</v>
+        <v>0.9822763801845713</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>350</v>
@@ -1053,19 +1053,19 @@
         <v>358716</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>349677</v>
+        <v>349708</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>364500</v>
+        <v>364401</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9646397284937883</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9403331058176952</v>
+        <v>0.9404176511037764</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9801956184173062</v>
+        <v>0.9799280192630825</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>690</v>
@@ -1074,19 +1074,19 @@
         <v>713677</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>700875</v>
+        <v>701506</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>721876</v>
+        <v>722936</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9659959522160398</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9486680948249715</v>
+        <v>0.9495224658092919</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9770932649774526</v>
+        <v>0.9785290495389594</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11465</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6439</v>
+        <v>5832</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19020</v>
+        <v>19502</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02113868938543144</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01187224418635621</v>
+        <v>0.01075256827928161</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03506751775707929</v>
+        <v>0.03595534210083672</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1199,19 +1199,19 @@
         <v>10512</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5332</v>
+        <v>5286</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17847</v>
+        <v>17849</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06265334498959324</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03177681692093003</v>
+        <v>0.03150811750241377</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1063730540222849</v>
+        <v>0.1063820147564954</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1220,19 +1220,19 @@
         <v>21977</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13896</v>
+        <v>14110</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31869</v>
+        <v>31287</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03094676109218917</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01956755682665268</v>
+        <v>0.01986860461299349</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0448752729723052</v>
+        <v>0.04405572363223959</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>530924</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>523369</v>
+        <v>522887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>535950</v>
+        <v>536557</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9788613106145686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9649324822429207</v>
+        <v>0.9640446578991632</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9881277558136438</v>
+        <v>0.9892474317207183</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>154</v>
@@ -1270,19 +1270,19 @@
         <v>157270</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>149935</v>
+        <v>149933</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162450</v>
+        <v>162496</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9373466550104068</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8936269459777152</v>
+        <v>0.8936179852435046</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.96822318307907</v>
+        <v>0.9684918824975862</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>674</v>
@@ -1291,19 +1291,19 @@
         <v>688194</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>678302</v>
+        <v>678884</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>696275</v>
+        <v>696061</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9690532389078108</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9551247270276952</v>
+        <v>0.9559442763677605</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9804324431733473</v>
+        <v>0.9801313953870068</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>40652</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28712</v>
+        <v>30244</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56033</v>
+        <v>56984</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03287466838057719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02321920453753622</v>
+        <v>0.0244582995649648</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04531341155599972</v>
+        <v>0.04608232494662517</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -1416,19 +1416,19 @@
         <v>33230</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23264</v>
+        <v>22574</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45181</v>
+        <v>45310</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04652219355287911</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0325697194586476</v>
+        <v>0.0316032901088545</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06325343570035062</v>
+        <v>0.0634346103205313</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -1437,19 +1437,19 @@
         <v>73882</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58063</v>
+        <v>56378</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93334</v>
+        <v>93513</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03787157294036646</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02976275439069843</v>
+        <v>0.02889905062884036</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04784282302996876</v>
+        <v>0.04793429345419585</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1195916</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1180535</v>
+        <v>1179584</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1207856</v>
+        <v>1206324</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9671253316194228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9546865884440002</v>
+        <v>0.9539176750533749</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9767807954624638</v>
+        <v>0.9755417004350352</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>661</v>
@@ -1487,19 +1487,19 @@
         <v>681055</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>669104</v>
+        <v>668975</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>691021</v>
+        <v>691711</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9534778064471209</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9367465642996491</v>
+        <v>0.9365653896794688</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9674302805413522</v>
+        <v>0.9683967098911456</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1844</v>
@@ -1508,19 +1508,19 @@
         <v>1876971</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1857519</v>
+        <v>1857340</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1892790</v>
+        <v>1894475</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9621284270596335</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9521571769700313</v>
+        <v>0.9520657065458039</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9702372456093016</v>
+        <v>0.9711009493711595</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>7194</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3490</v>
+        <v>3565</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13736</v>
+        <v>13609</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02052089694489019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009954454808649987</v>
+        <v>0.01016970653958628</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0391848338959641</v>
+        <v>0.03882220171736435</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -1633,19 +1633,19 @@
         <v>28603</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19307</v>
+        <v>19698</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41397</v>
+        <v>40205</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05043566876488485</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03404326164804432</v>
+        <v>0.03473330012003101</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07299454906669656</v>
+        <v>0.07089168988409084</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -1654,19 +1654,19 @@
         <v>35797</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25611</v>
+        <v>24985</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>49872</v>
+        <v>47581</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03900821406101272</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02790853581363272</v>
+        <v>0.02722647403029948</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05434610137664589</v>
+        <v>0.0518495024440817</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>343361</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>336819</v>
+        <v>336946</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>347065</v>
+        <v>346990</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9794791030551098</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9608151661040358</v>
+        <v>0.9611777982826359</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9900455451913498</v>
+        <v>0.9898302934604137</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>510</v>
@@ -1704,19 +1704,19 @@
         <v>538525</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>525731</v>
+        <v>526923</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>547821</v>
+        <v>547430</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9495643312351152</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9270054509333036</v>
+        <v>0.9291083101159093</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9659567383519558</v>
+        <v>0.9652666998799692</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>842</v>
@@ -1725,19 +1725,19 @@
         <v>881886</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>867811</v>
+        <v>870102</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>892072</v>
+        <v>892698</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9609917859389873</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9456538986233542</v>
+        <v>0.9481504975559183</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9720914641863673</v>
+        <v>0.9727735259697006</v>
       </c>
     </row>
     <row r="18">
@@ -1829,7 +1829,7 @@
         <v>9607</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4500</v>
+        <v>4704</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>17633</v>
@@ -1838,10 +1838,10 @@
         <v>0.03221613085468916</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01509197621461213</v>
+        <v>0.01577473160983183</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0591303640099973</v>
+        <v>0.05913292151816643</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -1850,19 +1850,19 @@
         <v>58575</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45793</v>
+        <v>45276</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>74849</v>
+        <v>73472</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04690692061947827</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03667056177672848</v>
+        <v>0.03625651373783962</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05993838215918735</v>
+        <v>0.05883584398605978</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>66</v>
@@ -1871,19 +1871,19 @@
         <v>68182</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>54625</v>
+        <v>53779</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>87573</v>
+        <v>84829</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04407504358076804</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03531110721452705</v>
+        <v>0.03476427181636788</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05660987374266789</v>
+        <v>0.05483597688583004</v>
       </c>
     </row>
     <row r="20">
@@ -1903,16 +1903,16 @@
         <v>280568</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>293701</v>
+        <v>293497</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9677838691453109</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9408696359900018</v>
+        <v>0.9408670784818336</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9849080237853872</v>
+        <v>0.9842252683901682</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1181</v>
@@ -1921,19 +1921,19 @@
         <v>1190185</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1173911</v>
+        <v>1175288</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1202967</v>
+        <v>1203484</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9530930793805217</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9400616178408131</v>
+        <v>0.9411641560139403</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9633294382232717</v>
+        <v>0.9637434862621604</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1478</v>
@@ -1942,19 +1942,19 @@
         <v>1478778</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1459387</v>
+        <v>1462131</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1492335</v>
+        <v>1493181</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9559249564192319</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9433901262573314</v>
+        <v>0.9451640231141699</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9646888927854728</v>
+        <v>0.9652357281836321</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>96357</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>76296</v>
+        <v>79125</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>117290</v>
+        <v>118665</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02950250133122252</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02336026718401436</v>
+        <v>0.02422644469484633</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03591178545281461</v>
+        <v>0.03633272933968023</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>155</v>
@@ -2067,19 +2067,19 @@
         <v>158282</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>134608</v>
+        <v>135432</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>184895</v>
+        <v>184362</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04687746938634973</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03986609847849976</v>
+        <v>0.04011007178607896</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0547594050332041</v>
+        <v>0.0546014558738191</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>249</v>
@@ -2088,19 +2088,19 @@
         <v>254639</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>225462</v>
+        <v>225107</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>287809</v>
+        <v>289252</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03833441081738484</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03394193801376586</v>
+        <v>0.03388858166696852</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04332793341898891</v>
+        <v>0.04354526202472388</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3169713</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3148780</v>
+        <v>3147405</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3189774</v>
+        <v>3186945</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9704974986687774</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9640882145471854</v>
+        <v>0.9636672706603198</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9766397328159856</v>
+        <v>0.9757735553051536</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3140</v>
@@ -2138,19 +2138,19 @@
         <v>3218218</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3191605</v>
+        <v>3192138</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3241892</v>
+        <v>3241068</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9531225306136503</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9452405949667955</v>
+        <v>0.9453985441261807</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9601339015215002</v>
+        <v>0.9598899282139209</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6249</v>
@@ -2159,19 +2159,19 @@
         <v>6387931</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6354761</v>
+        <v>6353318</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6417108</v>
+        <v>6417463</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9616655891826151</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9566720665810112</v>
+        <v>0.9564547379752758</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9660580619862342</v>
+        <v>0.9661114183330315</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>12653</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6699</v>
+        <v>6773</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22718</v>
+        <v>23050</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02913209648717757</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01542318019216959</v>
+        <v>0.01559454876310163</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05230549946469592</v>
+        <v>0.05306772919215074</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2526,19 +2526,19 @@
         <v>2756</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8348</v>
+        <v>8106</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008765451475811092</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002801282685958212</v>
+        <v>0.00281891143220349</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02654607126249152</v>
+        <v>0.02577728673214873</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -2547,19 +2547,19 @@
         <v>15410</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9352</v>
+        <v>8699</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25019</v>
+        <v>24588</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02057920310779065</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01248974494071596</v>
+        <v>0.01161708060636102</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03341251282523092</v>
+        <v>0.0328366921263758</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>421689</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>411624</v>
+        <v>411292</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>427643</v>
+        <v>427569</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9708679035128225</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9476945005353034</v>
+        <v>0.9469322708078493</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9845768198078304</v>
+        <v>0.9844054512368984</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>280</v>
@@ -2597,19 +2597,19 @@
         <v>311698</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>306106</v>
+        <v>306348</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313573</v>
+        <v>313568</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9912345485241889</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9734539287375085</v>
+        <v>0.9742227132678513</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9971987173140417</v>
+        <v>0.9971810885677964</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>669</v>
@@ -2618,19 +2618,19 @@
         <v>733386</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>723777</v>
+        <v>724208</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>739444</v>
+        <v>740097</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9794207968922094</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9665874871747691</v>
+        <v>0.9671633078736244</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9875102550592841</v>
+        <v>0.988382919393639</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>7993</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3273</v>
+        <v>3212</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17090</v>
+        <v>18291</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01923470437233485</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007877060680807334</v>
+        <v>0.007729570694821256</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04112352634897918</v>
+        <v>0.04401360822033487</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2743,19 +2743,19 @@
         <v>7058</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2935</v>
+        <v>2992</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14019</v>
+        <v>13761</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0208805233090586</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008684409253723229</v>
+        <v>0.008851369456744505</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04147462820691915</v>
+        <v>0.04071039147441227</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -2764,19 +2764,19 @@
         <v>15051</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8373</v>
+        <v>8667</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24847</v>
+        <v>26201</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01997292196789914</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01111048111268689</v>
+        <v>0.01150060912208313</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03297173208534535</v>
+        <v>0.03476926297442623</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>407575</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>398478</v>
+        <v>397277</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>412295</v>
+        <v>412356</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9807652956276651</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9588764736510208</v>
+        <v>0.9559863917796649</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9921229393191927</v>
+        <v>0.9922704293051787</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>298</v>
@@ -2814,19 +2814,19 @@
         <v>330953</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>323992</v>
+        <v>324250</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>335076</v>
+        <v>335019</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9791194766909413</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9585253717930808</v>
+        <v>0.9592896085255879</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9913155907462767</v>
+        <v>0.9911486305432555</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>664</v>
@@ -2835,19 +2835,19 @@
         <v>738528</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>728732</v>
+        <v>727378</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>745206</v>
+        <v>744912</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9800270780321009</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9670282679146547</v>
+        <v>0.9652307370255737</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9888895188873131</v>
+        <v>0.9884993908779168</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>5259</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1960</v>
+        <v>1987</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11661</v>
+        <v>11895</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008383133823570614</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003123566311683085</v>
+        <v>0.003166524651446323</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01858632915615016</v>
+        <v>0.01895893048141022</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2960,19 +2960,19 @@
         <v>3136</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>972</v>
+        <v>1001</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8460</v>
+        <v>8628</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01224949174117867</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003797723821113484</v>
+        <v>0.003909934490847447</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03304722854320713</v>
+        <v>0.0337013845325374</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -2981,19 +2981,19 @@
         <v>8395</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3964</v>
+        <v>4169</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15635</v>
+        <v>16289</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009503601234561555</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004487644043940807</v>
+        <v>0.00471880015686897</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0176986423539997</v>
+        <v>0.01843949777559089</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>622126</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>615724</v>
+        <v>615490</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>625425</v>
+        <v>625398</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9916168661764294</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9814136708438504</v>
+        <v>0.9810410695185896</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.996876433688317</v>
+        <v>0.9968334753485536</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>237</v>
@@ -3031,19 +3031,19 @@
         <v>252870</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>247546</v>
+        <v>247378</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>255034</v>
+        <v>255005</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9877505082588214</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9669527714567928</v>
+        <v>0.9662986154674627</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9962022761788865</v>
+        <v>0.9960900655091526</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>821</v>
@@ -3052,19 +3052,19 @@
         <v>874996</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>867756</v>
+        <v>867102</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>879427</v>
+        <v>879222</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9904963987654385</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9823013576459999</v>
+        <v>0.9815605022244089</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9955123559560591</v>
+        <v>0.995281199843131</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>20473</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12526</v>
+        <v>12824</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32634</v>
+        <v>32354</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01771016609875514</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01083609154260498</v>
+        <v>0.01109356457870458</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02823034927893495</v>
+        <v>0.0279880360453566</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -3177,19 +3177,19 @@
         <v>18933</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11186</v>
+        <v>11454</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29951</v>
+        <v>29697</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02472907855835447</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01460960928992555</v>
+        <v>0.01496040240721283</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03911912155583396</v>
+        <v>0.03878762148782833</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -3198,19 +3198,19 @@
         <v>39406</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28234</v>
+        <v>28294</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54847</v>
+        <v>53741</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02050671655740114</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01469299954360122</v>
+        <v>0.01472391768045298</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02854221060869568</v>
+        <v>0.02796634758894134</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1135516</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1123355</v>
+        <v>1123635</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1143463</v>
+        <v>1143165</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9822898339012449</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.971769650721065</v>
+        <v>0.9720119639546434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.989163908457395</v>
+        <v>0.9889064354212954</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>693</v>
@@ -3248,19 +3248,19 @@
         <v>746700</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>735682</v>
+        <v>735936</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>754447</v>
+        <v>754179</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9752709214416455</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9608808784441661</v>
+        <v>0.9612123785121716</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9853903907100745</v>
+        <v>0.9850395975927871</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1754</v>
@@ -3269,19 +3269,19 @@
         <v>1882216</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1866775</v>
+        <v>1867881</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1893388</v>
+        <v>1893328</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9794932834425989</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9714577893913043</v>
+        <v>0.9720336524110587</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9853070004563989</v>
+        <v>0.985276082319547</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>5399</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1935</v>
+        <v>1985</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12773</v>
+        <v>12078</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01057344927096907</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003790239363835417</v>
+        <v>0.003887616428956706</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02501551199442374</v>
+        <v>0.02365507396880669</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3394,19 +3394,19 @@
         <v>7734</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2890</v>
+        <v>2831</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15753</v>
+        <v>16997</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01019900965316378</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00381135042579818</v>
+        <v>0.003732864885384005</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02077424310507811</v>
+        <v>0.02241491236994101</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3415,19 +3415,19 @@
         <v>13133</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6956</v>
+        <v>6683</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21627</v>
+        <v>23200</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0103496830723204</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005481670078398115</v>
+        <v>0.005266990737959352</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01704420416262395</v>
+        <v>0.01828396065645299</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>505197</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>497823</v>
+        <v>498518</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>508661</v>
+        <v>508611</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.989426550729031</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9749844880055761</v>
+        <v>0.9763449260311933</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9962097606361645</v>
+        <v>0.9961123835710434</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>694</v>
@@ -3465,19 +3465,19 @@
         <v>750556</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>742537</v>
+        <v>741293</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>755400</v>
+        <v>755459</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9898009903468362</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9792257568949219</v>
+        <v>0.977585087630059</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9961886495742017</v>
+        <v>0.996267135114616</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1176</v>
@@ -3486,19 +3486,19 @@
         <v>1255754</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1247260</v>
+        <v>1245687</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1261931</v>
+        <v>1262204</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9896503169276796</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9829557958373759</v>
+        <v>0.9817160393435477</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9945183299216017</v>
+        <v>0.9947330092620408</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>4778</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1905</v>
+        <v>1880</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10625</v>
+        <v>10301</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01809645720586095</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007212853520633769</v>
+        <v>0.007120611484048988</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04023963396399789</v>
+        <v>0.03901157982641527</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -3611,19 +3611,19 @@
         <v>18099</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10615</v>
+        <v>10793</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27224</v>
+        <v>28850</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01643846449703227</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009641244490797913</v>
+        <v>0.009802817680731208</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0247262481719174</v>
+        <v>0.02620355839311693</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -3632,19 +3632,19 @@
         <v>22877</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15451</v>
+        <v>14340</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34926</v>
+        <v>34355</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01675918160260311</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01131922211863038</v>
+        <v>0.010504941055856</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0255855303962193</v>
+        <v>0.02516748486323003</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>259276</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253429</v>
+        <v>253753</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262149</v>
+        <v>262174</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9819035427941391</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9597603660360021</v>
+        <v>0.960988420173582</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9927871464793663</v>
+        <v>0.992879388515951</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1019</v>
@@ -3682,19 +3682,19 @@
         <v>1082910</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1073785</v>
+        <v>1072159</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1090394</v>
+        <v>1090216</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9835615355029678</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9752737518280826</v>
+        <v>0.9737964416068831</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9903587555092022</v>
+        <v>0.9901971823192688</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1276</v>
@@ -3703,19 +3703,19 @@
         <v>1342186</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1330137</v>
+        <v>1330708</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1349612</v>
+        <v>1350723</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9832408183973969</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9744144696037802</v>
+        <v>0.9748325151367699</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9886807778813695</v>
+        <v>0.989495058944144</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>56556</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43168</v>
+        <v>43506</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>74649</v>
+        <v>74833</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01659540196416258</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01266680810219204</v>
+        <v>0.01276612134040459</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02190462173970923</v>
+        <v>0.02195840357913899</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -3828,19 +3828,19 @@
         <v>57716</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43676</v>
+        <v>43209</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>75769</v>
+        <v>76189</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01633445811819745</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01236099592261232</v>
+        <v>0.01222868287267056</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02144365070159722</v>
+        <v>0.02156262419895456</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>105</v>
@@ -3849,19 +3849,19 @@
         <v>114272</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>94766</v>
+        <v>94689</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>138934</v>
+        <v>137811</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01646257164948749</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01365240643679675</v>
+        <v>0.01364124883484342</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02001549643203289</v>
+        <v>0.01985369105165615</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3351377</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3333284</v>
+        <v>3333100</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3364765</v>
+        <v>3364427</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9834045980358375</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9780953782602907</v>
+        <v>0.9780415964208611</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9873331918978079</v>
+        <v>0.9872338786595956</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3221</v>
@@ -3899,19 +3899,19 @@
         <v>3475688</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3457635</v>
+        <v>3457215</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3489728</v>
+        <v>3490195</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9836655418818026</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9785563492984027</v>
+        <v>0.9784373758010454</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9876390040773876</v>
+        <v>0.9877713171273295</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6360</v>
@@ -3920,19 +3920,19 @@
         <v>6827065</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6802403</v>
+        <v>6803526</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6846571</v>
+        <v>6846648</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9835374283505125</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9799845035679671</v>
+        <v>0.9801463089483436</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9863475935632039</v>
+        <v>0.9863587511651566</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>5886</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2048</v>
+        <v>2038</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13395</v>
+        <v>13752</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0137168599493071</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004773686513210081</v>
+        <v>0.004749987534627941</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03121618552948219</v>
+        <v>0.032049839830478</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4287,19 +4287,19 @@
         <v>3234</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9055</v>
+        <v>8938</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009367625988125234</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002798676820853425</v>
+        <v>0.002831175065964872</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02622757811735578</v>
+        <v>0.02589093065374122</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -4308,19 +4308,19 @@
         <v>9120</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4161</v>
+        <v>4095</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18494</v>
+        <v>18179</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01177775814524604</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005373908787863192</v>
+        <v>0.005289035467622916</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02388358467596874</v>
+        <v>0.02347693999134835</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>423206</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>415697</v>
+        <v>415340</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>427044</v>
+        <v>427054</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.986283140050693</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.968783814470518</v>
+        <v>0.9679501601695225</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9952263134867899</v>
+        <v>0.995250012465372</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>327</v>
@@ -4358,19 +4358,19 @@
         <v>341997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>336176</v>
+        <v>336293</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>344265</v>
+        <v>344254</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9906323740118748</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9737724218826443</v>
+        <v>0.9741090693462587</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9972013231791466</v>
+        <v>0.9971688249340351</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>718</v>
@@ -4379,19 +4379,19 @@
         <v>765204</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>755830</v>
+        <v>756145</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>770163</v>
+        <v>770229</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9882222418547539</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9761164153240318</v>
+        <v>0.9765230600086515</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9946260912121369</v>
+        <v>0.9947109645323771</v>
       </c>
     </row>
     <row r="6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7899</v>
+        <v>7885</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004222307505698283</v>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02099418746861196</v>
+        <v>0.02095727992773061</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4504,19 +4504,19 @@
         <v>7455</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3098</v>
+        <v>3182</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14756</v>
+        <v>14590</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02002617614375118</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008320797646603113</v>
+        <v>0.008548089361670614</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03963702878133295</v>
+        <v>0.03919208158067281</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -4525,19 +4525,19 @@
         <v>9044</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4142</v>
+        <v>4389</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17295</v>
+        <v>17364</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01208241658411625</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005534121124220695</v>
+        <v>0.005864054298593762</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02310647194410802</v>
+        <v>0.02319827310960258</v>
       </c>
     </row>
     <row r="8">
@@ -4554,7 +4554,7 @@
         <v>374646</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368336</v>
+        <v>368350</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>376235</v>
@@ -4563,7 +4563,7 @@
         <v>0.9957776924943017</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9790058125313881</v>
+        <v>0.9790427200722694</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4575,19 +4575,19 @@
         <v>364818</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>357517</v>
+        <v>357683</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369175</v>
+        <v>369091</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9799738238562489</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9603629712186669</v>
+        <v>0.9608079184193271</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9916792023533969</v>
+        <v>0.9914519106383294</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>697</v>
@@ -4596,19 +4596,19 @@
         <v>739464</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>731213</v>
+        <v>731144</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>744366</v>
+        <v>744119</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9879175834158838</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9768935280558919</v>
+        <v>0.976801726890398</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9944658788757793</v>
+        <v>0.9941359457014063</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>3295</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>796</v>
+        <v>854</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9910</v>
+        <v>9983</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006326828184639159</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001528361710106487</v>
+        <v>0.001639571928440486</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01902663769243906</v>
+        <v>0.01916698159835642</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -4734,19 +4734,19 @@
         <v>3295</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10601</v>
+        <v>10428</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004796839693996166</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001161103323788105</v>
+        <v>0.001158847925934841</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01543225169419039</v>
+        <v>0.01518029179631977</v>
       </c>
     </row>
     <row r="11">
@@ -4763,19 +4763,19 @@
         <v>517535</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>510920</v>
+        <v>510847</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520034</v>
+        <v>519976</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9936731718153609</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9809733623075609</v>
+        <v>0.9808330184016435</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9984716382898935</v>
+        <v>0.9983604280715596</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -4797,19 +4797,19 @@
         <v>683658</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>676352</v>
+        <v>676525</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>686155</v>
+        <v>686157</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9952031603060039</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9845677483058096</v>
+        <v>0.9848197082036796</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9988388966762118</v>
+        <v>0.9988411520740651</v>
       </c>
     </row>
     <row r="12">
@@ -4901,19 +4901,19 @@
         <v>24441</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15943</v>
+        <v>15763</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35397</v>
+        <v>35391</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02136672206914211</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01393762324620547</v>
+        <v>0.01378023848221038</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03094426654820782</v>
+        <v>0.03093918881667398</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -4922,19 +4922,19 @@
         <v>21171</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13710</v>
+        <v>13737</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33303</v>
+        <v>33420</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02575954519119465</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01668087774067674</v>
+        <v>0.01671418116248541</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04052021631402154</v>
+        <v>0.0406627253532336</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -4943,19 +4943,19 @@
         <v>45613</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33641</v>
+        <v>34084</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59165</v>
+        <v>60886</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02320334046133918</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01711312451339344</v>
+        <v>0.01733874579914391</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03009755060920052</v>
+        <v>0.03097276353953319</v>
       </c>
     </row>
     <row r="14">
@@ -4972,19 +4972,19 @@
         <v>1119455</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1108499</v>
+        <v>1108505</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1127953</v>
+        <v>1128133</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9786332779308579</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9690557334517922</v>
+        <v>0.9690608111833261</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9860623767537946</v>
+        <v>0.9862197615177897</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>774</v>
@@ -4993,19 +4993,19 @@
         <v>800712</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>788580</v>
+        <v>788463</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>808173</v>
+        <v>808146</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9742404548088054</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9594797836859785</v>
+        <v>0.9593372746467664</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9833191222593233</v>
+        <v>0.9832858188375148</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1849</v>
@@ -5014,19 +5014,19 @@
         <v>1920165</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1906613</v>
+        <v>1904892</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1932137</v>
+        <v>1931694</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9767966595386608</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9699024493907995</v>
+        <v>0.9690272364604668</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9828868754866067</v>
+        <v>0.982661254200856</v>
       </c>
     </row>
     <row r="15">
@@ -5118,19 +5118,19 @@
         <v>9759</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4747</v>
+        <v>4436</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18379</v>
+        <v>19332</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01572202538618622</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007647741007754915</v>
+        <v>0.00714729113636244</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02960908103596779</v>
+        <v>0.03114535123940156</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -5139,19 +5139,19 @@
         <v>13586</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7521</v>
+        <v>7441</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22498</v>
+        <v>22559</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01842939728024623</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0102020870557398</v>
+        <v>0.01009415050355651</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03051779486235499</v>
+        <v>0.03060048098623085</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -5160,19 +5160,19 @@
         <v>23345</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14801</v>
+        <v>15201</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33921</v>
+        <v>35952</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01719185179615033</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01089991108554297</v>
+        <v>0.0111943013200443</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.024980476057244</v>
+        <v>0.02647567548980187</v>
       </c>
     </row>
     <row r="17">
@@ -5189,19 +5189,19 @@
         <v>610947</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>602327</v>
+        <v>601374</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>615959</v>
+        <v>616270</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9842779746138138</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9703909189640312</v>
+        <v>0.9688546487605979</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.992352258992245</v>
+        <v>0.9928527088636373</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>685</v>
@@ -5210,19 +5210,19 @@
         <v>723623</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>714711</v>
+        <v>714650</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>729688</v>
+        <v>729768</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9815706027197537</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.969482205137645</v>
+        <v>0.9693995190137692</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9897979129442603</v>
+        <v>0.9899058494964436</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1273</v>
@@ -5231,19 +5231,19 @@
         <v>1334570</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1323994</v>
+        <v>1321963</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1343114</v>
+        <v>1342714</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9828081482038497</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.975019523942757</v>
+        <v>0.9735243245101981</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9891000889144577</v>
+        <v>0.9888056986799557</v>
       </c>
     </row>
     <row r="18">
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5320</v>
+        <v>5239</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003683362867025182</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01858547348444682</v>
+        <v>0.01830088588208669</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -5356,19 +5356,19 @@
         <v>29999</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19184</v>
+        <v>19618</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43249</v>
+        <v>43391</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02791013087651558</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01784809247674549</v>
+        <v>0.01825195563180326</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04023685834406197</v>
+        <v>0.04036981464079249</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -5377,19 +5377,19 @@
         <v>31053</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20503</v>
+        <v>21270</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44907</v>
+        <v>46446</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02281508510693557</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01506376622702288</v>
+        <v>0.01562734454407676</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03299362799636312</v>
+        <v>0.03412419870747887</v>
       </c>
     </row>
     <row r="20">
@@ -5406,7 +5406,7 @@
         <v>285193</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280927</v>
+        <v>281008</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>286247</v>
@@ -5415,7 +5415,7 @@
         <v>0.9963166371329748</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9814145265155532</v>
+        <v>0.9816991141179134</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5427,19 +5427,19 @@
         <v>1044849</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1031599</v>
+        <v>1031457</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1055664</v>
+        <v>1055230</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9720898691234844</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.959763141655938</v>
+        <v>0.9596301853592073</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9821519075232543</v>
+        <v>0.9817480443681966</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1230</v>
@@ -5448,19 +5448,19 @@
         <v>1330042</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1316188</v>
+        <v>1314649</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1340592</v>
+        <v>1339825</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9771849148930645</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9670063720036369</v>
+        <v>0.9658758012925209</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9849362337729771</v>
+        <v>0.9843726554559232</v>
       </c>
     </row>
     <row r="21">
@@ -5552,19 +5552,19 @@
         <v>46024</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33854</v>
+        <v>33201</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62538</v>
+        <v>61337</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01362863632105376</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01002497618319376</v>
+        <v>0.009831486457325298</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01851890449169152</v>
+        <v>0.01816318064464402</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -5573,19 +5573,19 @@
         <v>75446</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59783</v>
+        <v>59762</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>94718</v>
+        <v>96452</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02144834537320204</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01699558793587673</v>
+        <v>0.01698962959168297</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02692720428920305</v>
+        <v>0.02741998637261515</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>111</v>
@@ -5594,19 +5594,19 @@
         <v>121470</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>99340</v>
+        <v>99052</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>147349</v>
+        <v>145975</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01761820155903857</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01440841663699681</v>
+        <v>0.01436666043453556</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02137172818167295</v>
+        <v>0.0211723921584336</v>
       </c>
     </row>
     <row r="23">
@@ -5623,19 +5623,19 @@
         <v>3330982</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3314468</v>
+        <v>3315669</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3343152</v>
+        <v>3343805</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9863713636789463</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9814810955083082</v>
+        <v>0.9818368193553558</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9899750238168062</v>
+        <v>0.9901685135426747</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3244</v>
@@ -5644,19 +5644,19 @@
         <v>3442121</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3422849</v>
+        <v>3421115</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3457784</v>
+        <v>3457805</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9785516546267979</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9730727957107969</v>
+        <v>0.9725800136273848</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9830044120641233</v>
+        <v>0.983010370408317</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6418</v>
@@ -5665,19 +5665,19 @@
         <v>6773103</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6747224</v>
+        <v>6748598</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6795233</v>
+        <v>6795521</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9823817984409614</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.978628271818327</v>
+        <v>0.9788276078415665</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9855915833630031</v>
+        <v>0.9856333395654644</v>
       </c>
     </row>
     <row r="24">
@@ -6011,19 +6011,19 @@
         <v>11171</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5468</v>
+        <v>5335</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22590</v>
+        <v>23377</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02034100952499691</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009955954036301626</v>
+        <v>0.009714048695998498</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04113451194287013</v>
+        <v>0.04256769814180713</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -6032,19 +6032,19 @@
         <v>7474</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3375</v>
+        <v>3543</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13622</v>
+        <v>15199</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0154059984628394</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006956037284684929</v>
+        <v>0.007302108656362482</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02807816753916431</v>
+        <v>0.03132822977008179</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -6053,19 +6053,19 @@
         <v>18645</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10776</v>
+        <v>11162</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29459</v>
+        <v>29451</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01802626554320552</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01041824933311022</v>
+        <v>0.01079186916463562</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02848169073950584</v>
+        <v>0.02847343514267861</v>
       </c>
     </row>
     <row r="5">
@@ -6082,19 +6082,19 @@
         <v>538011</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>526592</v>
+        <v>525805</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>543714</v>
+        <v>543847</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9796589904750032</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9588654880571302</v>
+        <v>0.9574323018581926</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9900440459636983</v>
+        <v>0.9902859513040014</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>672</v>
@@ -6103,19 +6103,19 @@
         <v>477673</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>471525</v>
+        <v>469948</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>481772</v>
+        <v>481604</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9845940015371606</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9719218324608356</v>
+        <v>0.9686717702299176</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.993043962715315</v>
+        <v>0.9926978913436374</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1215</v>
@@ -6124,19 +6124,19 @@
         <v>1015684</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1004870</v>
+        <v>1004878</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1023553</v>
+        <v>1023167</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9819737344567945</v>
+        <v>0.9819737344567947</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9715183092604941</v>
+        <v>0.9715265648573218</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9895817506668901</v>
+        <v>0.9892081308353646</v>
       </c>
     </row>
     <row r="6">
@@ -6228,19 +6228,19 @@
         <v>2529</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7282</v>
+        <v>7220</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005242141113550795</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001201858801368391</v>
+        <v>0.001229332396540454</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01509215367171186</v>
+        <v>0.01496282964541391</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -6249,19 +6249,19 @@
         <v>7271</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3298</v>
+        <v>3412</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14952</v>
+        <v>13754</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0172009721954973</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007802369389125154</v>
+        <v>0.008071006313545024</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03537368703587404</v>
+        <v>0.03253979214606788</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -6270,19 +6270,19 @@
         <v>9800</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5140</v>
+        <v>5467</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17738</v>
+        <v>18556</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01082634155058847</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005678253353862197</v>
+        <v>0.006040034639669198</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01959560259632976</v>
+        <v>0.02049876823996812</v>
       </c>
     </row>
     <row r="8">
@@ -6299,19 +6299,19 @@
         <v>479988</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>475235</v>
+        <v>475297</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>481937</v>
+        <v>481924</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9947578588864494</v>
+        <v>0.9947578588864493</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.984907846328288</v>
+        <v>0.9850371703545857</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9987981411986315</v>
+        <v>0.9987706676034594</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>580</v>
@@ -6320,19 +6320,19 @@
         <v>415416</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>407735</v>
+        <v>408933</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>419389</v>
+        <v>419275</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9827990278045027</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9646263129641259</v>
+        <v>0.9674602078539322</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.992197630610875</v>
+        <v>0.9919289936864549</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1057</v>
@@ -6341,19 +6341,19 @@
         <v>895405</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>887467</v>
+        <v>886649</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>900065</v>
+        <v>899738</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9891736584494115</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9804043974036699</v>
+        <v>0.9795012317600318</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9943217466461378</v>
+        <v>0.9939599653603308</v>
       </c>
     </row>
     <row r="9">
@@ -6445,19 +6445,19 @@
         <v>4860</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1591</v>
+        <v>1727</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11076</v>
+        <v>11185</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01030439001610927</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003374318488058067</v>
+        <v>0.003661181865179649</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02348439212581291</v>
+        <v>0.02371639864302931</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -6466,19 +6466,19 @@
         <v>1802</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4794</v>
+        <v>4997</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009664368109501094</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002299028406152825</v>
+        <v>0.002258360053878441</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02571161913516901</v>
+        <v>0.02679992986137478</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -6487,19 +6487,19 @@
         <v>6662</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3019</v>
+        <v>2922</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13138</v>
+        <v>12754</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01012305686007646</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004587864038164768</v>
+        <v>0.004440478549890788</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01996442444877054</v>
+        <v>0.01938137762529798</v>
       </c>
     </row>
     <row r="11">
@@ -6516,19 +6516,19 @@
         <v>466752</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>460536</v>
+        <v>460427</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>470021</v>
+        <v>469885</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9896956099838908</v>
+        <v>0.9896956099838907</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9765156078741871</v>
+        <v>0.9762836013569708</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.996625681511942</v>
+        <v>0.9963388181348203</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>284</v>
@@ -6537,19 +6537,19 @@
         <v>184640</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>181648</v>
+        <v>181445</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>186013</v>
+        <v>186021</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.990335631890499</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9742883808648312</v>
+        <v>0.973200070138625</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9977009715938472</v>
+        <v>0.9977416399461216</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>767</v>
@@ -6558,19 +6558,19 @@
         <v>651392</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644916</v>
+        <v>645300</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>655035</v>
+        <v>655132</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9898769431399237</v>
+        <v>0.9898769431399235</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9800355755512296</v>
+        <v>0.980618622374702</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9954121359618354</v>
+        <v>0.9955595214501094</v>
       </c>
     </row>
     <row r="12">
@@ -6662,19 +6662,19 @@
         <v>9854</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5079</v>
+        <v>4988</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18477</v>
+        <v>18309</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.008724835018294849</v>
+        <v>0.00872483501829485</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004496932321606032</v>
+        <v>0.004416333573497856</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01636055533748262</v>
+        <v>0.01621196778511123</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -6683,19 +6683,19 @@
         <v>10434</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5760</v>
+        <v>5992</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17539</v>
+        <v>17410</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01212312400885892</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00669227901748727</v>
+        <v>0.0069624533188865</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02037845319358915</v>
+        <v>0.02022890743864705</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -6704,19 +6704,19 @@
         <v>20288</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13514</v>
+        <v>13212</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30595</v>
+        <v>30027</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01019455075993034</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00679090686809205</v>
+        <v>0.00663902219883841</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01537395700906371</v>
+        <v>0.0150888799909621</v>
       </c>
     </row>
     <row r="14">
@@ -6733,19 +6733,19 @@
         <v>1119516</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1110893</v>
+        <v>1111061</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1124291</v>
+        <v>1124382</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9912751649817052</v>
+        <v>0.9912751649817054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9836394446625173</v>
+        <v>0.9837880322148886</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9955030676783938</v>
+        <v>0.9955836664265021</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1214</v>
@@ -6754,19 +6754,19 @@
         <v>850230</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>843125</v>
+        <v>843254</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>854904</v>
+        <v>854672</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9878768759911412</v>
+        <v>0.987876875991141</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9796215468064109</v>
+        <v>0.9797710925613534</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9933077209825129</v>
+        <v>0.9930375466811135</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2319</v>
@@ -6775,19 +6775,19 @@
         <v>1969746</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1959439</v>
+        <v>1960007</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1976520</v>
+        <v>1976822</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9898054492400696</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9846260429909357</v>
+        <v>0.9849111200090377</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9932090931319079</v>
+        <v>0.9933609778011616</v>
       </c>
     </row>
     <row r="15">
@@ -6879,19 +6879,19 @@
         <v>5275</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2223</v>
+        <v>1897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12051</v>
+        <v>11917</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.00931532402091358</v>
+        <v>0.009315324020913581</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003924674116332172</v>
+        <v>0.003349753501590176</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02128055526991953</v>
+        <v>0.02104372735470317</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -6900,19 +6900,19 @@
         <v>11982</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7466</v>
+        <v>7629</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18207</v>
+        <v>18700</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01445918672963293</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009009684783780019</v>
+        <v>0.009206351427804784</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02197078884067289</v>
+        <v>0.02256597638192121</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -6921,19 +6921,19 @@
         <v>17257</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11574</v>
+        <v>11289</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26691</v>
+        <v>25492</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01237098383187516</v>
+        <v>0.01237098383187515</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008296652704551266</v>
+        <v>0.00809249363765111</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01913379786307193</v>
+        <v>0.01827382913430565</v>
       </c>
     </row>
     <row r="17">
@@ -6950,19 +6950,19 @@
         <v>561035</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>554259</v>
+        <v>554393</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>564087</v>
+        <v>564413</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9906846759790865</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9787194447300803</v>
+        <v>0.9789562726452963</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9960753258836679</v>
+        <v>0.9966502464984097</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1266</v>
@@ -6971,19 +6971,19 @@
         <v>816698</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>810473</v>
+        <v>809980</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>821214</v>
+        <v>821051</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9855408132703671</v>
+        <v>0.985540813270367</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9780292111593268</v>
+        <v>0.9774340236180794</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9909903152162199</v>
+        <v>0.9907936485721952</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1806</v>
@@ -6992,19 +6992,19 @@
         <v>1377733</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1368299</v>
+        <v>1369498</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1383416</v>
+        <v>1383701</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9876290161681248</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9808662021369281</v>
+        <v>0.9817261708656945</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9917033472954488</v>
+        <v>0.9919075063623489</v>
       </c>
     </row>
     <row r="18">
@@ -7109,19 +7109,19 @@
         <v>5193</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2484</v>
+        <v>2289</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9401</v>
+        <v>9541</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.006163628168590993</v>
+        <v>0.006163628168590994</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002948653048597021</v>
+        <v>0.002717213922900728</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01115755700927494</v>
+        <v>0.01132401290237779</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -7130,19 +7130,19 @@
         <v>5193</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2597</v>
+        <v>2221</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9309</v>
+        <v>9534</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.004809444302589942</v>
+        <v>0.004809444302589941</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002405087357579128</v>
+        <v>0.002057272959724782</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.008621886933746208</v>
+        <v>0.008830027818411704</v>
       </c>
     </row>
     <row r="20">
@@ -7172,19 +7172,19 @@
         <v>837332</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>833124</v>
+        <v>832984</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>840041</v>
+        <v>840236</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9938363718314089</v>
+        <v>0.993836371831409</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9888424429907251</v>
+        <v>0.9886759870976222</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9970513469514031</v>
+        <v>0.9972827860770993</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1259</v>
@@ -7193,19 +7193,19 @@
         <v>1074559</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1070443</v>
+        <v>1070218</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1077155</v>
+        <v>1077531</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.99519055569741</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9913781130662539</v>
+        <v>0.9911699721815888</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9975949126424213</v>
+        <v>0.9979427270402753</v>
       </c>
     </row>
     <row r="21">
@@ -7297,19 +7297,19 @@
         <v>33689</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23706</v>
+        <v>23766</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48753</v>
+        <v>48584</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.00980407256776498</v>
+        <v>0.009804072567764981</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006898767983783752</v>
+        <v>0.00691627660212738</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0141880938533049</v>
+        <v>0.01413890251712162</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>65</v>
@@ -7318,19 +7318,19 @@
         <v>44156</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33744</v>
+        <v>33566</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56399</v>
+        <v>56373</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01217701861947477</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009305864847024607</v>
+        <v>0.009256768826243216</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01555335346781063</v>
+        <v>0.01554624057101968</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>100</v>
@@ -7339,19 +7339,19 @@
         <v>77845</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63505</v>
+        <v>61165</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>95606</v>
+        <v>95164</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0110224529889387</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008992066071028764</v>
+        <v>0.008660755485616118</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01353740947913083</v>
+        <v>0.01347477720131748</v>
       </c>
     </row>
     <row r="23">
@@ -7368,19 +7368,19 @@
         <v>3402530</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3387466</v>
+        <v>3387635</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3412513</v>
+        <v>3412453</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9901959274322351</v>
+        <v>0.9901959274322349</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9858119061466954</v>
+        <v>0.9858610974828784</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9931012320162163</v>
+        <v>0.9930837233978733</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5163</v>
@@ -7389,19 +7389,19 @@
         <v>3581989</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3569746</v>
+        <v>3569772</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3592401</v>
+        <v>3592579</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9878229813805253</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9844466465321892</v>
+        <v>0.9844537594289803</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9906941351529754</v>
+        <v>0.9907432311737567</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8423</v>
@@ -7410,19 +7410,19 @@
         <v>6984519</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6966758</v>
+        <v>6967200</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6998859</v>
+        <v>7001199</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9889775470110614</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9864625905208692</v>
+        <v>0.9865252227986826</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9910079339289711</v>
+        <v>0.9913392445143838</v>
       </c>
     </row>
     <row r="24">
